--- a/biology/Zoologie/Gobiesocidae/Gobiesocidae.xlsx
+++ b/biology/Zoologie/Gobiesocidae/Gobiesocidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gobiesocidae sont une famille de poissons.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont principalement des petits poissons, la plupart des espèces ne dépassant pas les 6 cm de long.
 Ils ont le corps effilé, une unique nageoire dorsale, la tête aplatie.
@@ -544,7 +558,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve les espèces de cette famille dans les océans Pacifique, Atlantique, Indien et en Méditerranée.
 Les espèces de cette famille vivent principalement au fond de l'eau, et peuvent s'abriter entre les oursins et les crinoïdes.
@@ -576,13 +592,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est classée dans différents ordres et super-ordres selon les sources :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cette famille est classée dans différents ordres et super-ordres selon les sources :
 ITIS la classe dans le super-ordre des Acanthopterygii et l'ordre des Perciformes ;
-FishBase la classe dans le super-ordre des Paracanthopterygii et l'ordre des Gobiesociformes.
-Listes des genres
-Selon World Register of Marine Species                               (2 mai 2016)[1] :
+FishBase la classe dans le super-ordre des Paracanthopterygii et l'ordre des Gobiesociformes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Gobiesocidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gobiesocidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Listes des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (2 mai 2016) :
 sous-famille Cheilobranchinae Günther, 1870
 genre Alabes Cloquet, 1816
 sous-famille Gobiesocinae Bleeker, 1859
@@ -652,7 +704,7 @@
 			Sicyases sanguineus.
 			Tomicodon fasciatus.
 Liste des genres selon FishBase
-FishBase dénombre 120 espèces[2] classées dans les 45 genres suivants :
+FishBase dénombre 120 espèces classées dans les 45 genres suivants :
 Acyrtops
 Acyrtus
 Alabes
@@ -699,7 +751,7 @@
 Tomicodon
 Trachelochismus
 Liste des genres selon ITIS
-L'ITIS reconnaît 1675 espèces[3], classées dans les genres suivants :
+L'ITIS reconnaît 1675 espèces, classées dans les genres suivants :
 Acyrtops Schultz, 1951
 Acyrtus Schultz, 1944
 Alabes Cloquet, 1816
